--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dag1-Lama4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dag1-Lama4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.84555366666666</v>
+        <v>20.950428</v>
       </c>
       <c r="H2">
-        <v>62.536661</v>
+        <v>62.851284</v>
       </c>
       <c r="I2">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="J2">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>100.3911106666667</v>
+        <v>100.451973</v>
       </c>
       <c r="N2">
-        <v>301.173332</v>
+        <v>301.355919</v>
       </c>
       <c r="O2">
-        <v>0.459319947776371</v>
+        <v>0.460990499564789</v>
       </c>
       <c r="P2">
-        <v>0.4593199477763709</v>
+        <v>0.460990499564789</v>
       </c>
       <c r="Q2">
-        <v>2092.708285058272</v>
+        <v>2104.511827794444</v>
       </c>
       <c r="R2">
-        <v>18834.37456552445</v>
+        <v>18940.60645014999</v>
       </c>
       <c r="S2">
-        <v>0.07020042180279416</v>
+        <v>0.06162096120904714</v>
       </c>
       <c r="T2">
-        <v>0.07020042180279415</v>
+        <v>0.06162096120904714</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.84555366666666</v>
+        <v>20.950428</v>
       </c>
       <c r="H3">
-        <v>62.536661</v>
+        <v>62.851284</v>
       </c>
       <c r="I3">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="J3">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>344.782952</v>
       </c>
       <c r="O3">
-        <v>0.5258290515138406</v>
+        <v>0.527421747053532</v>
       </c>
       <c r="P3">
-        <v>0.5258290515138406</v>
+        <v>0.5274217470535321</v>
       </c>
       <c r="Q3">
-        <v>2395.730509755919</v>
+        <v>2407.783470501152</v>
       </c>
       <c r="R3">
-        <v>21561.57458780327</v>
+        <v>21670.05123451037</v>
       </c>
       <c r="S3">
-        <v>0.0803653779704922</v>
+        <v>0.07050087810199196</v>
       </c>
       <c r="T3">
-        <v>0.0803653779704922</v>
+        <v>0.07050087810199197</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.84555366666666</v>
+        <v>20.950428</v>
       </c>
       <c r="H4">
-        <v>62.536661</v>
+        <v>62.851284</v>
       </c>
       <c r="I4">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="J4">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1681513333333333</v>
+        <v>0.03420666666666667</v>
       </c>
       <c r="N4">
-        <v>0.504454</v>
+        <v>0.10262</v>
       </c>
       <c r="O4">
-        <v>0.0007693436314460319</v>
+        <v>0.0001569799764422037</v>
       </c>
       <c r="P4">
-        <v>0.0007693436314460319</v>
+        <v>0.0001569799764422037</v>
       </c>
       <c r="Q4">
-        <v>3.505207643121555</v>
+        <v>0.71664430712</v>
       </c>
       <c r="R4">
-        <v>31.546868788094</v>
+        <v>6.449798764080001</v>
       </c>
       <c r="S4">
-        <v>0.0001175830653562206</v>
+        <v>2.098363642650874E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001175830653562206</v>
+        <v>2.098363642650874E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.84555366666666</v>
+        <v>20.950428</v>
       </c>
       <c r="H5">
-        <v>62.536661</v>
+        <v>62.851284</v>
       </c>
       <c r="I5">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="J5">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.077752666666667</v>
+        <v>2.481527333333334</v>
       </c>
       <c r="N5">
-        <v>9.233258000000001</v>
+        <v>7.444582</v>
       </c>
       <c r="O5">
-        <v>0.01408165707834238</v>
+        <v>0.01138813396006679</v>
       </c>
       <c r="P5">
-        <v>0.01408165707834238</v>
+        <v>0.01138813396006679</v>
       </c>
       <c r="Q5">
-        <v>64.15745838572644</v>
+        <v>51.989059727032</v>
       </c>
       <c r="R5">
-        <v>577.417125471538</v>
+        <v>467.901537543288</v>
       </c>
       <c r="S5">
-        <v>0.002152177956493252</v>
+        <v>0.001522260787715176</v>
       </c>
       <c r="T5">
-        <v>0.002152177956493252</v>
+        <v>0.001522260787715176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.057283</v>
+        <v>20.950428</v>
       </c>
       <c r="H6">
-        <v>87.17184899999999</v>
+        <v>62.851284</v>
       </c>
       <c r="I6">
-        <v>0.2130423692986087</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="J6">
-        <v>0.2130423692986087</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>100.3911106666667</v>
+        <v>0.009291333333333334</v>
       </c>
       <c r="N6">
-        <v>301.173332</v>
+        <v>0.027874</v>
       </c>
       <c r="O6">
-        <v>0.459319947776371</v>
+        <v>4.263944517004469E-05</v>
       </c>
       <c r="P6">
-        <v>0.4593199477763709</v>
+        <v>4.263944517004469E-05</v>
       </c>
       <c r="Q6">
-        <v>2917.092913325652</v>
+        <v>0.194657410024</v>
       </c>
       <c r="R6">
-        <v>26253.83621993087</v>
+        <v>1.751916690216</v>
       </c>
       <c r="S6">
-        <v>0.09785460994039129</v>
+        <v>5.699648038905717E-06</v>
       </c>
       <c r="T6">
-        <v>0.09785460994039127</v>
+        <v>5.699648038905717E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>87.17184899999999</v>
       </c>
       <c r="I7">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="J7">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>114.9276506666667</v>
+        <v>100.451973</v>
       </c>
       <c r="N7">
-        <v>344.782952</v>
+        <v>301.355919</v>
       </c>
       <c r="O7">
-        <v>0.5258290515138406</v>
+        <v>0.460990499564789</v>
       </c>
       <c r="P7">
-        <v>0.5258290515138406</v>
+        <v>0.460990499564789</v>
       </c>
       <c r="Q7">
-        <v>3339.485269946472</v>
+        <v>2918.861407369359</v>
       </c>
       <c r="R7">
-        <v>30055.36742951825</v>
+        <v>26269.75266632423</v>
       </c>
       <c r="S7">
-        <v>0.1120238669805488</v>
+        <v>0.08546544770270588</v>
       </c>
       <c r="T7">
-        <v>0.1120238669805488</v>
+        <v>0.08546544770270588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>87.17184899999999</v>
       </c>
       <c r="I8">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="J8">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1681513333333333</v>
+        <v>114.9276506666667</v>
       </c>
       <c r="N8">
-        <v>0.504454</v>
+        <v>344.782952</v>
       </c>
       <c r="O8">
-        <v>0.0007693436314460319</v>
+        <v>0.527421747053532</v>
       </c>
       <c r="P8">
-        <v>0.0007693436314460319</v>
+        <v>0.5274217470535321</v>
       </c>
       <c r="Q8">
-        <v>4.886020879494</v>
+        <v>3339.485269946472</v>
       </c>
       <c r="R8">
-        <v>43.974187915446</v>
+        <v>30055.36742951825</v>
       </c>
       <c r="S8">
-        <v>0.0001639027900480582</v>
+        <v>0.09778148526407592</v>
       </c>
       <c r="T8">
-        <v>0.0001639027900480582</v>
+        <v>0.09778148526407593</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>87.17184899999999</v>
       </c>
       <c r="I9">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="J9">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.077752666666667</v>
+        <v>0.03420666666666667</v>
       </c>
       <c r="N9">
-        <v>9.233258000000001</v>
+        <v>0.10262</v>
       </c>
       <c r="O9">
-        <v>0.01408165707834238</v>
+        <v>0.0001569799764422037</v>
       </c>
       <c r="P9">
-        <v>0.01408165707834238</v>
+        <v>0.0001569799764422037</v>
       </c>
       <c r="Q9">
-        <v>89.431130239338</v>
+        <v>0.99395279382</v>
       </c>
       <c r="R9">
-        <v>804.880172154042</v>
+        <v>8.945575144379999</v>
       </c>
       <c r="S9">
-        <v>0.002999989587620585</v>
+        <v>2.910334156486795E-05</v>
       </c>
       <c r="T9">
-        <v>0.002999989587620585</v>
+        <v>2.910334156486795E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.459812</v>
+        <v>29.057283</v>
       </c>
       <c r="H10">
-        <v>22.379436</v>
+        <v>87.17184899999999</v>
       </c>
       <c r="I10">
-        <v>0.05469389629450878</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="J10">
-        <v>0.05469389629450878</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.3911106666667</v>
+        <v>2.481527333333334</v>
       </c>
       <c r="N10">
-        <v>301.173332</v>
+        <v>7.444582</v>
       </c>
       <c r="O10">
-        <v>0.459319947776371</v>
+        <v>0.01138813396006679</v>
       </c>
       <c r="P10">
-        <v>0.4593199477763709</v>
+        <v>0.01138813396006679</v>
       </c>
       <c r="Q10">
-        <v>748.8988120445281</v>
+        <v>72.10644199690201</v>
       </c>
       <c r="R10">
-        <v>6740.089308400753</v>
+        <v>648.957977972118</v>
       </c>
       <c r="S10">
-        <v>0.02512199758968002</v>
+        <v>0.00211130591262588</v>
       </c>
       <c r="T10">
-        <v>0.02512199758968002</v>
+        <v>0.00211130591262588</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.459812</v>
+        <v>29.057283</v>
       </c>
       <c r="H11">
-        <v>22.379436</v>
+        <v>87.17184899999999</v>
       </c>
       <c r="I11">
-        <v>0.05469389629450878</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="J11">
-        <v>0.05469389629450878</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>114.9276506666667</v>
+        <v>0.009291333333333334</v>
       </c>
       <c r="N11">
-        <v>344.782952</v>
+        <v>0.027874</v>
       </c>
       <c r="O11">
-        <v>0.5258290515138406</v>
+        <v>4.263944517004469E-05</v>
       </c>
       <c r="P11">
-        <v>0.5258290515138406</v>
+        <v>4.263944517004469E-05</v>
       </c>
       <c r="Q11">
-        <v>857.3386675750081</v>
+        <v>0.269980902114</v>
       </c>
       <c r="R11">
-        <v>7716.048008175073</v>
+        <v>2.429828119026</v>
       </c>
       <c r="S11">
-        <v>0.02875963961213792</v>
+        <v>7.90515048508214E-06</v>
       </c>
       <c r="T11">
-        <v>0.02875963961213792</v>
+        <v>7.90515048508214E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.459812</v>
+        <v>4.814181666666666</v>
       </c>
       <c r="H12">
-        <v>22.379436</v>
+        <v>14.442545</v>
       </c>
       <c r="I12">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="J12">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1681513333333333</v>
+        <v>100.451973</v>
       </c>
       <c r="N12">
-        <v>0.504454</v>
+        <v>301.355919</v>
       </c>
       <c r="O12">
-        <v>0.0007693436314460319</v>
+        <v>0.460990499564789</v>
       </c>
       <c r="P12">
-        <v>0.0007693436314460319</v>
+        <v>0.460990499564789</v>
       </c>
       <c r="Q12">
-        <v>1.254377334216</v>
+        <v>483.594046797095</v>
       </c>
       <c r="R12">
-        <v>11.289396007944</v>
+        <v>4352.346421173855</v>
       </c>
       <c r="S12">
-        <v>4.207840079315006E-05</v>
+        <v>0.01415983013497255</v>
       </c>
       <c r="T12">
-        <v>4.207840079315006E-05</v>
+        <v>0.01415983013497255</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.459812</v>
+        <v>4.814181666666666</v>
       </c>
       <c r="H13">
-        <v>22.379436</v>
+        <v>14.442545</v>
       </c>
       <c r="I13">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="J13">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.077752666666667</v>
+        <v>114.9276506666667</v>
       </c>
       <c r="N13">
-        <v>9.233258000000001</v>
+        <v>344.782952</v>
       </c>
       <c r="O13">
-        <v>0.01408165707834238</v>
+        <v>0.527421747053532</v>
       </c>
       <c r="P13">
-        <v>0.01408165707834238</v>
+        <v>0.5274217470535321</v>
       </c>
       <c r="Q13">
-        <v>22.959456275832</v>
+        <v>553.2825888325378</v>
       </c>
       <c r="R13">
-        <v>206.6351064824881</v>
+        <v>4979.54329949284</v>
       </c>
       <c r="S13">
-        <v>0.0007701806918976937</v>
+        <v>0.01620033895453168</v>
       </c>
       <c r="T13">
-        <v>0.0007701806918976937</v>
+        <v>0.01620033895453168</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,61 +1284,61 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>71.92949600000001</v>
+        <v>4.814181666666666</v>
       </c>
       <c r="H14">
-        <v>215.788488</v>
+        <v>14.442545</v>
       </c>
       <c r="I14">
-        <v>0.527373128805429</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="J14">
-        <v>0.527373128805429</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>100.3911106666667</v>
+        <v>0.03420666666666667</v>
       </c>
       <c r="N14">
-        <v>301.173332</v>
+        <v>0.10262</v>
       </c>
       <c r="O14">
-        <v>0.459319947776371</v>
+        <v>0.0001569799764422037</v>
       </c>
       <c r="P14">
-        <v>0.4593199477763709</v>
+        <v>0.0001569799764422037</v>
       </c>
       <c r="Q14">
-        <v>7221.081993133559</v>
+        <v>0.1646771075444445</v>
       </c>
       <c r="R14">
-        <v>64989.73793820203</v>
+        <v>1.4820939679</v>
       </c>
       <c r="S14">
-        <v>0.242232997981571</v>
+        <v>4.821812603756699E-06</v>
       </c>
       <c r="T14">
-        <v>0.242232997981571</v>
+        <v>4.821812603756699E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>71.92949600000001</v>
+        <v>4.814181666666666</v>
       </c>
       <c r="H15">
-        <v>215.788488</v>
+        <v>14.442545</v>
       </c>
       <c r="I15">
-        <v>0.527373128805429</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="J15">
-        <v>0.527373128805429</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>114.9276506666667</v>
+        <v>2.481527333333334</v>
       </c>
       <c r="N15">
-        <v>344.782952</v>
+        <v>7.444582</v>
       </c>
       <c r="O15">
-        <v>0.5258290515138406</v>
+        <v>0.01138813396006679</v>
       </c>
       <c r="P15">
-        <v>0.5258290515138406</v>
+        <v>0.01138813396006679</v>
       </c>
       <c r="Q15">
-        <v>8266.6879889174</v>
+        <v>11.94652339346556</v>
       </c>
       <c r="R15">
-        <v>74400.19190025658</v>
+        <v>107.51871054119</v>
       </c>
       <c r="S15">
-        <v>0.2773081121136452</v>
+        <v>0.0003497990578571453</v>
       </c>
       <c r="T15">
-        <v>0.2773081121136452</v>
+        <v>0.0003497990578571453</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>71.92949600000001</v>
+        <v>4.814181666666666</v>
       </c>
       <c r="H16">
-        <v>215.788488</v>
+        <v>14.442545</v>
       </c>
       <c r="I16">
-        <v>0.527373128805429</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="J16">
-        <v>0.527373128805429</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1681513333333333</v>
+        <v>0.009291333333333334</v>
       </c>
       <c r="N16">
-        <v>0.504454</v>
+        <v>0.027874</v>
       </c>
       <c r="O16">
-        <v>0.0007693436314460319</v>
+        <v>4.263944517004469E-05</v>
       </c>
       <c r="P16">
-        <v>0.0007693436314460319</v>
+        <v>4.263944517004469E-05</v>
       </c>
       <c r="Q16">
-        <v>12.09504065839467</v>
+        <v>0.04473016659222222</v>
       </c>
       <c r="R16">
-        <v>108.855365925552</v>
+        <v>0.40257149933</v>
       </c>
       <c r="S16">
-        <v>0.0004057311580422246</v>
+        <v>1.309717448032686E-06</v>
       </c>
       <c r="T16">
-        <v>0.0004057311580422246</v>
+        <v>1.309717448032686E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>71.92949600000001</v>
+        <v>95.02938066666667</v>
       </c>
       <c r="H17">
-        <v>215.788488</v>
+        <v>285.088142</v>
       </c>
       <c r="I17">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="J17">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,33 +1488,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.077752666666667</v>
+        <v>100.451973</v>
       </c>
       <c r="N17">
-        <v>9.233258000000001</v>
+        <v>301.355919</v>
       </c>
       <c r="O17">
-        <v>0.01408165707834238</v>
+        <v>0.460990499564789</v>
       </c>
       <c r="P17">
-        <v>0.01408165707834238</v>
+        <v>0.460990499564789</v>
       </c>
       <c r="Q17">
-        <v>221.3811981259894</v>
+        <v>9545.888780934722</v>
       </c>
       <c r="R17">
-        <v>1992.430783133904</v>
+        <v>85912.99902841249</v>
       </c>
       <c r="S17">
-        <v>0.007426287552170537</v>
+        <v>0.2795075012205212</v>
       </c>
       <c r="T17">
-        <v>0.007426287552170537</v>
+        <v>0.2795075012205212</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.099893666666667</v>
+        <v>95.02938066666667</v>
       </c>
       <c r="H18">
-        <v>21.299681</v>
+        <v>285.088142</v>
       </c>
       <c r="I18">
-        <v>0.05205504480631769</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="J18">
-        <v>0.05205504480631769</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>100.3911106666667</v>
+        <v>114.9276506666667</v>
       </c>
       <c r="N18">
-        <v>301.173332</v>
+        <v>344.782952</v>
       </c>
       <c r="O18">
-        <v>0.459319947776371</v>
+        <v>0.527421747053532</v>
       </c>
       <c r="P18">
-        <v>0.4593199477763709</v>
+        <v>0.5274217470535321</v>
       </c>
       <c r="Q18">
-        <v>712.7662108118992</v>
+        <v>10921.50346432835</v>
       </c>
       <c r="R18">
-        <v>6414.895897307092</v>
+        <v>98293.53117895519</v>
       </c>
       <c r="S18">
-        <v>0.02390992046193449</v>
+        <v>0.3197860579501506</v>
       </c>
       <c r="T18">
-        <v>0.02390992046193449</v>
+        <v>0.3197860579501507</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.099893666666667</v>
+        <v>95.02938066666667</v>
       </c>
       <c r="H19">
-        <v>21.299681</v>
+        <v>285.088142</v>
       </c>
       <c r="I19">
-        <v>0.05205504480631769</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="J19">
-        <v>0.05205504480631769</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>114.9276506666667</v>
+        <v>0.03420666666666667</v>
       </c>
       <c r="N19">
-        <v>344.782952</v>
+        <v>0.10262</v>
       </c>
       <c r="O19">
-        <v>0.5258290515138406</v>
+        <v>0.0001569799764422037</v>
       </c>
       <c r="P19">
-        <v>0.5258290515138406</v>
+        <v>0.0001569799764422037</v>
       </c>
       <c r="Q19">
-        <v>815.9740990931458</v>
+        <v>3.250638348004445</v>
       </c>
       <c r="R19">
-        <v>7343.766891838312</v>
+        <v>29.25574513204</v>
       </c>
       <c r="S19">
-        <v>0.0273720548370165</v>
+        <v>9.51800112983674E-05</v>
       </c>
       <c r="T19">
-        <v>0.0273720548370165</v>
+        <v>9.51800112983674E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,108 +1656,418 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.099893666666667</v>
+        <v>95.02938066666667</v>
       </c>
       <c r="H20">
-        <v>21.299681</v>
+        <v>285.088142</v>
       </c>
       <c r="I20">
-        <v>0.05205504480631769</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="J20">
-        <v>0.05205504480631769</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1681513333333333</v>
+        <v>2.481527333333334</v>
       </c>
       <c r="N20">
-        <v>0.504454</v>
+        <v>7.444582</v>
       </c>
       <c r="O20">
-        <v>0.0007693436314460319</v>
+        <v>0.01138813396006679</v>
       </c>
       <c r="P20">
-        <v>0.0007693436314460319</v>
+        <v>0.01138813396006679</v>
       </c>
       <c r="Q20">
-        <v>1.193856586574889</v>
+        <v>235.8180055940716</v>
       </c>
       <c r="R20">
-        <v>10.744709279174</v>
+        <v>2122.362050346644</v>
       </c>
       <c r="S20">
-        <v>4.004821720637835E-05</v>
+        <v>0.006904846997384744</v>
       </c>
       <c r="T20">
-        <v>4.004821720637835E-05</v>
+        <v>0.006904846997384744</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>95.02938066666667</v>
+      </c>
+      <c r="H21">
+        <v>285.088142</v>
+      </c>
+      <c r="I21">
+        <v>0.6063194393038427</v>
+      </c>
+      <c r="J21">
+        <v>0.6063194393038427</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.009291333333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.027874</v>
+      </c>
+      <c r="O21">
+        <v>4.263944517004469E-05</v>
+      </c>
+      <c r="P21">
+        <v>4.263944517004469E-05</v>
+      </c>
+      <c r="Q21">
+        <v>0.8829496522342223</v>
+      </c>
+      <c r="R21">
+        <v>7.946546870108</v>
+      </c>
+      <c r="S21">
+        <v>2.585312448772844E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.585312448772844E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.880268666666666</v>
+      </c>
+      <c r="H22">
+        <v>20.640806</v>
+      </c>
+      <c r="I22">
+        <v>0.04389843026406686</v>
+      </c>
+      <c r="J22">
+        <v>0.04389843026406686</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>100.451973</v>
+      </c>
+      <c r="N22">
+        <v>301.355919</v>
+      </c>
+      <c r="O22">
+        <v>0.460990499564789</v>
+      </c>
+      <c r="P22">
+        <v>0.460990499564789</v>
+      </c>
+      <c r="Q22">
+        <v>691.1365623367459</v>
+      </c>
+      <c r="R22">
+        <v>6220.229061030713</v>
+      </c>
+      <c r="S22">
+        <v>0.02023675929754223</v>
+      </c>
+      <c r="T22">
+        <v>0.02023675929754223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.880268666666666</v>
+      </c>
+      <c r="H23">
+        <v>20.640806</v>
+      </c>
+      <c r="I23">
+        <v>0.04389843026406686</v>
+      </c>
+      <c r="J23">
+        <v>0.04389843026406686</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>114.9276506666667</v>
+      </c>
+      <c r="N23">
+        <v>344.782952</v>
+      </c>
+      <c r="O23">
+        <v>0.527421747053532</v>
+      </c>
+      <c r="P23">
+        <v>0.5274217470535321</v>
+      </c>
+      <c r="Q23">
+        <v>790.7331138154791</v>
+      </c>
+      <c r="R23">
+        <v>7116.598024339311</v>
+      </c>
+      <c r="S23">
+        <v>0.02315298678278178</v>
+      </c>
+      <c r="T23">
+        <v>0.02315298678278179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.880268666666666</v>
+      </c>
+      <c r="H24">
+        <v>20.640806</v>
+      </c>
+      <c r="I24">
+        <v>0.04389843026406686</v>
+      </c>
+      <c r="J24">
+        <v>0.04389843026406686</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.03420666666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.10262</v>
+      </c>
+      <c r="O24">
+        <v>0.0001569799764422037</v>
+      </c>
+      <c r="P24">
+        <v>0.0001569799764422037</v>
+      </c>
+      <c r="Q24">
+        <v>0.2353510568577778</v>
+      </c>
+      <c r="R24">
+        <v>2.11815951172</v>
+      </c>
+      <c r="S24">
+        <v>6.891174548702939E-06</v>
+      </c>
+      <c r="T24">
+        <v>6.891174548702939E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>7.099893666666667</v>
-      </c>
-      <c r="H21">
-        <v>21.299681</v>
-      </c>
-      <c r="I21">
-        <v>0.05205504480631769</v>
-      </c>
-      <c r="J21">
-        <v>0.05205504480631769</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>3.077752666666667</v>
-      </c>
-      <c r="N21">
-        <v>9.233258000000001</v>
-      </c>
-      <c r="O21">
-        <v>0.01408165707834238</v>
-      </c>
-      <c r="P21">
-        <v>0.01408165707834238</v>
-      </c>
-      <c r="Q21">
-        <v>21.85171666563311</v>
-      </c>
-      <c r="R21">
-        <v>196.665449990698</v>
-      </c>
-      <c r="S21">
-        <v>0.0007330212901603132</v>
-      </c>
-      <c r="T21">
-        <v>0.0007330212901603132</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.880268666666666</v>
+      </c>
+      <c r="H25">
+        <v>20.640806</v>
+      </c>
+      <c r="I25">
+        <v>0.04389843026406686</v>
+      </c>
+      <c r="J25">
+        <v>0.04389843026406686</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.481527333333334</v>
+      </c>
+      <c r="N25">
+        <v>7.444582</v>
+      </c>
+      <c r="O25">
+        <v>0.01138813396006679</v>
+      </c>
+      <c r="P25">
+        <v>0.01138813396006679</v>
+      </c>
+      <c r="Q25">
+        <v>17.07357475701022</v>
+      </c>
+      <c r="R25">
+        <v>153.662172813092</v>
+      </c>
+      <c r="S25">
+        <v>0.0004999212044838434</v>
+      </c>
+      <c r="T25">
+        <v>0.0004999212044838434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.880268666666666</v>
+      </c>
+      <c r="H26">
+        <v>20.640806</v>
+      </c>
+      <c r="I26">
+        <v>0.04389843026406686</v>
+      </c>
+      <c r="J26">
+        <v>0.04389843026406686</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.009291333333333334</v>
+      </c>
+      <c r="N26">
+        <v>0.027874</v>
+      </c>
+      <c r="O26">
+        <v>4.263944517004469E-05</v>
+      </c>
+      <c r="P26">
+        <v>4.263944517004469E-05</v>
+      </c>
+      <c r="Q26">
+        <v>0.06392686960488889</v>
+      </c>
+      <c r="R26">
+        <v>0.5753418264439999</v>
+      </c>
+      <c r="S26">
+        <v>1.871804710295709E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.871804710295709E-06</v>
       </c>
     </row>
   </sheetData>
